--- a/biology/Zoologie/Gymnammodytes/Gymnammodytes.xlsx
+++ b/biology/Zoologie/Gymnammodytes/Gymnammodytes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Gymnammodytes est un genre de poissons de la famille des Ammodytidae communément appelés Cicerelles. Ces petits poissons sont aussi appelés lançons ou équilles[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gymnammodytes est un genre de poissons de la famille des Ammodytidae communément appelés Cicerelles. Ces petits poissons sont aussi appelés lançons ou équilles.
 </t>
         </is>
       </c>
@@ -511,12 +523,14 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon FishBase                                           (30 janvier 2016)[2] et World Register of Marine Species                               (30 janvier 2020)[3] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon FishBase                                           (30 janvier 2016) et World Register of Marine Species                               (30 janvier 2020) :
 Gymnammodytes capensis Barnard 1927 - Cicerello du Cap
-Gymnammodytes cicerelus Rafinesque, 1810 - Lançon cicerelle[1], Cicerelle commune[1]
-Gymnammodytes semisquamatus (Jourdain, 1879) - Grande cicerelle[1]</t>
+Gymnammodytes cicerelus Rafinesque, 1810 - Lançon cicerelle, Cicerelle commune
+Gymnammodytes semisquamatus (Jourdain, 1879) - Grande cicerelle</t>
         </is>
       </c>
     </row>
@@ -544,9 +558,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom de ce genre composé du grec ancien γυμνός, gumnós, « nu », άμμος, ámmos, « sable », δύειη, dýeiê, «  pénétrer dans, plonger », fait référence à ces espèces qui s'enfouissent dans le sable[4]. 
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom de ce genre composé du grec ancien γυμνός, gumnós, « nu », άμμος, ámmos, « sable », δύειη, dýeiê, «  pénétrer dans, plonger », fait référence à ces espèces qui s'enfouissent dans le sable. 
 </t>
         </is>
       </c>
@@ -575,9 +591,11 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>(de) Duncker &amp; Mohr, 1935 : Die nordeuropäischen Ammodytes-Arten des Hamburger Zoologischen Museums. Zoologischer Anzeiger, vol. 110, n. 1, p. 216-220[5] (introduction).</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>(de) Duncker &amp; Mohr, 1935 : Die nordeuropäischen Ammodytes-Arten des Hamburger Zoologischen Museums. Zoologischer Anzeiger, vol. 110, n. 1, p. 216-220 (introduction).</t>
         </is>
       </c>
     </row>
